--- a/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>166834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148280</v>
+        <v>146437</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184750</v>
+        <v>183457</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5232438894626493</v>
+        <v>0.5232438894626494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4650546425718623</v>
+        <v>0.4592724561521692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5794344297325726</v>
+        <v>0.5753789045372865</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>245</v>
@@ -762,19 +762,19 @@
         <v>135950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120184</v>
+        <v>122691</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149964</v>
+        <v>151909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.430139900296098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3802558178838728</v>
+        <v>0.3881870727961177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4744789648896295</v>
+        <v>0.4806309891608012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>421</v>
@@ -783,19 +783,19 @@
         <v>302784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279909</v>
+        <v>277168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>325752</v>
+        <v>325669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4768960675823354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4408665045664656</v>
+        <v>0.4365496338973886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5130709392218633</v>
+        <v>0.5129399086637654</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>107489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90111</v>
+        <v>90850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124308</v>
+        <v>125106</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3371202074150296</v>
+        <v>0.3371202074150297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2826178713763347</v>
+        <v>0.2849335310842946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3898694936803748</v>
+        <v>0.3923732334376311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -833,19 +833,19 @@
         <v>133128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117701</v>
+        <v>119133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147155</v>
+        <v>147256</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4212093488953086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3724001226449715</v>
+        <v>0.376929705337184</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4655895152289061</v>
+        <v>0.4659100236591783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -854,19 +854,19 @@
         <v>240617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>219704</v>
+        <v>218932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264208</v>
+        <v>263659</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3789803745924492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3460422947630942</v>
+        <v>0.3448253879976613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4161376147013467</v>
+        <v>0.4152718994953272</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>44522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33648</v>
+        <v>32875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60500</v>
+        <v>58921</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1396359031223209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1055298325708069</v>
+        <v>0.1031072716999498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1897488557297705</v>
+        <v>0.1847953531538636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -904,19 +904,19 @@
         <v>46983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36733</v>
+        <v>35625</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60843</v>
+        <v>58898</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1486507508085934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1162219612567388</v>
+        <v>0.1127150096608463</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.192505194871599</v>
+        <v>0.1863498951510025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -925,19 +925,19 @@
         <v>91505</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74726</v>
+        <v>74685</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110550</v>
+        <v>111396</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1441235578252155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1176958492212685</v>
+        <v>0.1176322798387309</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1741204833358748</v>
+        <v>0.1754528287472426</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>219465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191907</v>
+        <v>190111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247127</v>
+        <v>250398</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4135791285231342</v>
+        <v>0.4135791285231343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3616468474868024</v>
+        <v>0.3582622983720876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4657092335526503</v>
+        <v>0.4718731198666234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>325</v>
@@ -1050,19 +1050,19 @@
         <v>240494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>220620</v>
+        <v>217140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>262562</v>
+        <v>260528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4400666748317341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4037005557580289</v>
+        <v>0.3973324013815596</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4804483291386628</v>
+        <v>0.4767264635464462</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>491</v>
@@ -1071,19 +1071,19 @@
         <v>459958</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425280</v>
+        <v>425579</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>493832</v>
+        <v>494038</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4270177494348774</v>
+        <v>0.4270177494348773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3948226370248466</v>
+        <v>0.3951001135338095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4584659367540866</v>
+        <v>0.4586563533167022</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>250956</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>224730</v>
+        <v>220533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>281390</v>
+        <v>279964</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4729246368973887</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4235015088451364</v>
+        <v>0.4155930367758561</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5302766847347273</v>
+        <v>0.5275905772914328</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>305</v>
@@ -1121,19 +1121,19 @@
         <v>236878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>216117</v>
+        <v>218201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257898</v>
+        <v>259689</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4334504641106015</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3954617576429658</v>
+        <v>0.3992747717874267</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.471913920165089</v>
+        <v>0.4751909153068619</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>480</v>
@@ -1142,19 +1142,19 @@
         <v>487834</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>450047</v>
+        <v>451570</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>521234</v>
+        <v>522621</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.452897170490882</v>
+        <v>0.4528971704908819</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4178159680920088</v>
+        <v>0.4192299179142214</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4839054331964444</v>
+        <v>0.4851927661886201</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>60226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43933</v>
+        <v>44846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82193</v>
+        <v>81243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.113496234579477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08279059052225626</v>
+        <v>0.08451273427886576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1548911377114142</v>
+        <v>0.1531008805389121</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1192,19 +1192,19 @@
         <v>69122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55373</v>
+        <v>55345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86255</v>
+        <v>84718</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1264828610576645</v>
+        <v>0.1264828610576644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1013236914408467</v>
+        <v>0.1012733580627743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1578339778505929</v>
+        <v>0.155020373087931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -1213,19 +1213,19 @@
         <v>129349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106036</v>
+        <v>109567</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154163</v>
+        <v>157590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1200850800742408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09844221550126973</v>
+        <v>0.1017201637914959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1431224259141985</v>
+        <v>0.1463041253948081</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>155751</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138784</v>
+        <v>138997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173487</v>
+        <v>172576</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4928932288576857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4391988287804594</v>
+        <v>0.4398749012649829</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5490219248819862</v>
+        <v>0.5461395930152867</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>288</v>
@@ -1338,19 +1338,19 @@
         <v>192274</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>175887</v>
+        <v>176301</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>207684</v>
+        <v>207777</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.539519052977857</v>
+        <v>0.5395190529778569</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4935365870325343</v>
+        <v>0.4946977347453677</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5827588890909774</v>
+        <v>0.5830186307701053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>475</v>
@@ -1359,19 +1359,19 @@
         <v>348026</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>322977</v>
+        <v>325040</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>371008</v>
+        <v>373873</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5176064906672861</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4803530350664791</v>
+        <v>0.4834214381050599</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5517880578591434</v>
+        <v>0.5560480011523183</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>88173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72651</v>
+        <v>72986</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103089</v>
+        <v>104010</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2790358560991378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2299142755446906</v>
+        <v>0.2309747192186568</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3262384731233755</v>
+        <v>0.3291517189627126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>152</v>
@@ -1409,19 +1409,19 @@
         <v>99933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85916</v>
+        <v>85684</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114470</v>
+        <v>114476</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.280411261252982</v>
+        <v>0.2804112612529819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.241077958727094</v>
+        <v>0.2404267347925885</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3212002305574541</v>
+        <v>0.3212180567742623</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>248</v>
@@ -1430,19 +1430,19 @@
         <v>188107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168146</v>
+        <v>166966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210997</v>
+        <v>209703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2797648672920257</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2500775743522378</v>
+        <v>0.2483231366577427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3138089290013679</v>
+        <v>0.3118837885088615</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>72069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56207</v>
+        <v>56959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87158</v>
+        <v>88090</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2280709150431765</v>
+        <v>0.2280709150431764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1778738364085816</v>
+        <v>0.1802551262779938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2758214338392501</v>
+        <v>0.2787712539663141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1480,19 +1480,19 @@
         <v>64173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52265</v>
+        <v>53248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76168</v>
+        <v>78869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1800696857691611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1466535486292431</v>
+        <v>0.1494136579806926</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2137275296252823</v>
+        <v>0.2213042538352402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -1501,19 +1501,19 @@
         <v>136242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117461</v>
+        <v>118083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154986</v>
+        <v>156673</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2026286420406882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.174695380339649</v>
+        <v>0.1756202859489777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2305055632553046</v>
+        <v>0.2330145937931691</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>181326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155996</v>
+        <v>151285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205046</v>
+        <v>204157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4901408161048332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4216707234965831</v>
+        <v>0.4089360883550868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5542565594482401</v>
+        <v>0.5518552675853537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>286</v>
@@ -1626,19 +1626,19 @@
         <v>188758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169944</v>
+        <v>169674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>208027</v>
+        <v>207401</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4503356204229192</v>
+        <v>0.4503356204229191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4054496041862355</v>
+        <v>0.4048059192737883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4963072691891472</v>
+        <v>0.4948140718114008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>436</v>
@@ -1647,19 +1647,19 @@
         <v>370084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>337137</v>
+        <v>338372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>403092</v>
+        <v>403386</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4689972231694162</v>
+        <v>0.4689972231694163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4272449741422757</v>
+        <v>0.4288095072187887</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5108273798367081</v>
+        <v>0.511200119309327</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>87160</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69091</v>
+        <v>69019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110963</v>
+        <v>108759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2356016617967966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1867592138513195</v>
+        <v>0.1865635577045344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2999441570617616</v>
+        <v>0.2939860727595127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -1697,19 +1697,19 @@
         <v>118832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102346</v>
+        <v>102570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138415</v>
+        <v>138330</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2835066479851003</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.244174907821529</v>
+        <v>0.244709874543507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.330227513350781</v>
+        <v>0.3300258783059018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>238</v>
@@ -1718,19 +1718,19 @@
         <v>205992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182363</v>
+        <v>181266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>236246</v>
+        <v>233901</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2610476748157071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2311043264087357</v>
+        <v>0.2297141218931594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2993882509257688</v>
+        <v>0.2964163308740424</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>101461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79279</v>
+        <v>79399</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129530</v>
+        <v>130280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2742575220983702</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2142985377936934</v>
+        <v>0.2146232758487153</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3501304425035502</v>
+        <v>0.3521597914117908</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>143</v>
@@ -1768,19 +1768,19 @@
         <v>111560</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94445</v>
+        <v>94767</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>130989</v>
+        <v>130618</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2661577315919805</v>
+        <v>0.2661577315919804</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2253251555133852</v>
+        <v>0.2260942782839272</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3125116683693798</v>
+        <v>0.3116269975809963</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -1789,19 +1789,19 @@
         <v>213020</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>184626</v>
+        <v>185207</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243424</v>
+        <v>245785</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2699551020148766</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2339717756073176</v>
+        <v>0.2347078839069355</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3084849948233102</v>
+        <v>0.3114760626642822</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>150198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137260</v>
+        <v>139070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160404</v>
+        <v>162417</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.730306144545019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6673949143943424</v>
+        <v>0.6761963233531064</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7799284826746889</v>
+        <v>0.7897154331823379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -1914,19 +1914,19 @@
         <v>177727</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>168707</v>
+        <v>166676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>186489</v>
+        <v>186313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7852241355431857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7453732709242603</v>
+        <v>0.7363997943404725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8239376268725629</v>
+        <v>0.8231609667856437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>594</v>
@@ -1935,19 +1935,19 @@
         <v>327924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>312064</v>
+        <v>312808</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341963</v>
+        <v>340533</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7590792116412114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7223651559280905</v>
+        <v>0.7240878290741185</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7915756431965383</v>
+        <v>0.7882643241587883</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>36904</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28366</v>
+        <v>28041</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48172</v>
+        <v>47766</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1794363544684143</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1379231568364142</v>
+        <v>0.136343637358962</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.234226377662155</v>
+        <v>0.2322511061941013</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -1985,19 +1985,19 @@
         <v>29373</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22659</v>
+        <v>21720</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38512</v>
+        <v>39526</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1297723988762857</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1001103847802846</v>
+        <v>0.09596070966142892</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1701515730162835</v>
+        <v>0.1746329073573959</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>105</v>
@@ -2006,19 +2006,19 @@
         <v>66276</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53823</v>
+        <v>54447</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>80383</v>
+        <v>79465</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1534160230516599</v>
+        <v>0.1534160230516598</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1245896939636984</v>
+        <v>0.1260336290950718</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1860707372861072</v>
+        <v>0.1839444268362335</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>18563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12399</v>
+        <v>12485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26099</v>
+        <v>26847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09025750098656664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06028643301524039</v>
+        <v>0.06070500378618638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1269022369938439</v>
+        <v>0.1305379593378428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2056,19 +2056,19 @@
         <v>19240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14019</v>
+        <v>13984</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25020</v>
+        <v>25799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08500346558052857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06193977222633051</v>
+        <v>0.06178410576196065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1105427245529118</v>
+        <v>0.113983518588379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -2077,19 +2077,19 @@
         <v>37802</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29908</v>
+        <v>30088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48509</v>
+        <v>47466</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08750476530712871</v>
+        <v>0.08750476530712872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06923045111164558</v>
+        <v>0.06964739526288344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.112288706902259</v>
+        <v>0.1098744077788223</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>119223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103942</v>
+        <v>105066</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>133776</v>
+        <v>134612</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4404131471308237</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3839651703922086</v>
+        <v>0.388116624222772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4941729411723363</v>
+        <v>0.4972596987019968</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>243</v>
@@ -2202,19 +2202,19 @@
         <v>131418</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>119532</v>
+        <v>117900</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145116</v>
+        <v>143723</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4982669374306178</v>
+        <v>0.4982669374306176</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4532030809614178</v>
+        <v>0.4470123729402311</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5502041039406927</v>
+        <v>0.544922809688706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>422</v>
@@ -2223,19 +2223,19 @@
         <v>250641</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>231561</v>
+        <v>231115</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>269618</v>
+        <v>269758</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4689635194479275</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4332649409829438</v>
+        <v>0.432429827550994</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5044716168772695</v>
+        <v>0.5047331161379146</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>73129</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59965</v>
+        <v>60531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86009</v>
+        <v>85964</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2701393450120809</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2215133457345897</v>
+        <v>0.2236017369615741</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3177207585071939</v>
+        <v>0.3175527423953252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2273,19 +2273,19 @@
         <v>88048</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75554</v>
+        <v>74459</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100302</v>
+        <v>101231</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3338314830282931</v>
+        <v>0.333831483028293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2864589301542087</v>
+        <v>0.2823086404905868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3802934866662381</v>
+        <v>0.3838142743097244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -2294,19 +2294,19 @@
         <v>161177</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143877</v>
+        <v>143551</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182100</v>
+        <v>179844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3015708941744129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2692022149789009</v>
+        <v>0.2685920752750152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3407205017171795</v>
+        <v>0.336497633377262</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>78355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>65536</v>
+        <v>65004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92556</v>
+        <v>93092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2894475078570954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2420924240939084</v>
+        <v>0.2401269513180815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3419046597083898</v>
+        <v>0.3438864541380862</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -2344,19 +2344,19 @@
         <v>44284</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35505</v>
+        <v>36087</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55320</v>
+        <v>53785</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1679015795410893</v>
+        <v>0.1679015795410892</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1346170924891026</v>
+        <v>0.1368224087357493</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2097440255583678</v>
+        <v>0.2039245421609988</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -2365,19 +2365,19 @@
         <v>122639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106391</v>
+        <v>107276</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>140232</v>
+        <v>141492</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2294655863776595</v>
+        <v>0.2294655863776596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1990629996034412</v>
+        <v>0.2007189178153865</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2623815200794873</v>
+        <v>0.2647393963298246</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>416422</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>384233</v>
+        <v>385879</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>446190</v>
+        <v>448067</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5794860860403552</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5346930307918195</v>
+        <v>0.5369832729099262</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6209112996652779</v>
+        <v>0.6235228755322563</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>637</v>
@@ -2490,19 +2490,19 @@
         <v>495434</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>469530</v>
+        <v>468760</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>519643</v>
+        <v>519350</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6428965166699696</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6092816860128829</v>
+        <v>0.6082830140538025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6743116522393773</v>
+        <v>0.6739311800449501</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>995</v>
@@ -2511,19 +2511,19 @@
         <v>911856</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>871929</v>
+        <v>868403</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>955041</v>
+        <v>949957</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6122988481817693</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5854884578359232</v>
+        <v>0.5831209309518615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6412971252401881</v>
+        <v>0.6378835918649625</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>157014</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>133042</v>
+        <v>131056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>189790</v>
+        <v>183531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2184980810017167</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1851399335149714</v>
+        <v>0.1823758107737076</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2641083238129358</v>
+        <v>0.2553983507644412</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>168</v>
@@ -2561,19 +2561,19 @@
         <v>147965</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128001</v>
+        <v>127877</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>172077</v>
+        <v>173493</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1920061742295444</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1660994223763498</v>
+        <v>0.1659388515649086</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2232941400290142</v>
+        <v>0.2251314916867981</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>290</v>
@@ -2582,19 +2582,19 @@
         <v>304979</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>272731</v>
+        <v>273902</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>340029</v>
+        <v>342848</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2047894115138007</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1831350380003025</v>
+        <v>0.1839215705871225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2283250046506563</v>
+        <v>0.2302176712260483</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>145170</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121596</v>
+        <v>121539</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>170590</v>
+        <v>173071</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2020158329579281</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1692105868536863</v>
+        <v>0.1691316453489292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2373908513217259</v>
+        <v>0.2408433003699167</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -2632,19 +2632,19 @@
         <v>127229</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108589</v>
+        <v>109389</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>147538</v>
+        <v>149038</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.165097309100486</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1409097384530718</v>
+        <v>0.1419478884458217</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1914517764670466</v>
+        <v>0.1933978699223552</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>271</v>
@@ -2653,19 +2653,19 @@
         <v>272398</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>242043</v>
+        <v>242435</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>305690</v>
+        <v>307531</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1829117403044299</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1625287020947471</v>
+        <v>0.1627917119065501</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2052670211405828</v>
+        <v>0.2065029337475476</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>211990</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>187770</v>
+        <v>186942</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>238290</v>
+        <v>238784</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2656273147359362</v>
+        <v>0.2656273147359363</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2352794775682529</v>
+        <v>0.2342416432440412</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2985827030089908</v>
+        <v>0.29920165944003</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>333</v>
@@ -2778,19 +2778,19 @@
         <v>257462</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>235244</v>
+        <v>233286</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>285004</v>
+        <v>280561</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.309994177271624</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2832429130985789</v>
+        <v>0.2808861427451412</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3431565868333876</v>
+        <v>0.3378065371642711</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>535</v>
@@ -2799,19 +2799,19 @@
         <v>469451</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>435266</v>
+        <v>435506</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>509357</v>
+        <v>505791</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2882529557177717</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2672622246938901</v>
+        <v>0.2674096144154292</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3127557752233463</v>
+        <v>0.3105665200528826</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>480486</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>449093</v>
+        <v>449797</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>508976</v>
+        <v>510495</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6020584584846699</v>
+        <v>0.6020584584846698</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5627222271020481</v>
+        <v>0.5636046603465863</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6377567304204599</v>
+        <v>0.639660682885385</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>629</v>
@@ -2849,19 +2849,19 @@
         <v>488830</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>462938</v>
+        <v>464179</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>513249</v>
+        <v>512895</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.5885708432598838</v>
+        <v>0.588570843259884</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5573959844513806</v>
+        <v>0.5588898136366246</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6179725629593805</v>
+        <v>0.6175462536563273</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1091</v>
@@ -2870,19 +2870,19 @@
         <v>969316</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>927266</v>
+        <v>932549</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1008985</v>
+        <v>1009698</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5951802182320111</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5693607619330268</v>
+        <v>0.5726046813928612</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.619537936396565</v>
+        <v>0.6199755743719835</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>105596</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>84989</v>
+        <v>85191</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>128723</v>
+        <v>130581</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1323142267793939</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1064927408262547</v>
+        <v>0.1067454023572191</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1612930206507263</v>
+        <v>0.1636206437748155</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>99</v>
@@ -2920,19 +2920,19 @@
         <v>84246</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>68508</v>
+        <v>70583</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101656</v>
+        <v>103796</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.101434979468492</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08248617905675718</v>
+        <v>0.08498441050467616</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1223979178679317</v>
+        <v>0.1249743081214187</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>197</v>
@@ -2941,19 +2941,19 @@
         <v>189842</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>165088</v>
+        <v>162518</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>221654</v>
+        <v>216931</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1165668260502172</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1013677441134422</v>
+        <v>0.09978917188732775</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1361002088545928</v>
+        <v>0.1332004354899466</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>1621208</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1558061</v>
+        <v>1556062</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1688971</v>
+        <v>1683560</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4594633867104114</v>
+        <v>0.4594633867104115</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4415670609882979</v>
+        <v>0.4410004221160859</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4786677613502873</v>
+        <v>0.4771342246024345</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2746</v>
@@ -3066,19 +3066,19 @@
         <v>1819517</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1759433</v>
+        <v>1767644</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1868857</v>
+        <v>1875166</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4878925357679872</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4717813950198244</v>
+        <v>0.4739829855512667</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5011227919563419</v>
+        <v>0.502814570166445</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4369</v>
@@ -3087,19 +3087,19 @@
         <v>3440725</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3354135</v>
+        <v>3348330</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3528603</v>
+        <v>3524481</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4740713463199503</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4621407705205166</v>
+        <v>0.4613409366880113</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4861793177345646</v>
+        <v>0.48561139012939</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>1281311</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1217456</v>
+        <v>1220104</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1352996</v>
+        <v>1343172</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.3631338274959132</v>
+        <v>0.3631338274959131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3450368116149377</v>
+        <v>0.3457870894154876</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3834498096738222</v>
+        <v>0.3806656428307114</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1846</v>
@@ -3137,19 +3137,19 @@
         <v>1342987</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1290496</v>
+        <v>1291124</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1396561</v>
+        <v>1394248</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3601138176604679</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.346038637315122</v>
+        <v>0.3462071691617399</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3744793199947098</v>
+        <v>0.3738592200522462</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3027</v>
@@ -3158,19 +3158,19 @@
         <v>2624298</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2548890</v>
+        <v>2546014</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2701534</v>
+        <v>2711763</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3615820335393917</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3511920698954137</v>
+        <v>0.3507959248502359</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3722237269932019</v>
+        <v>0.3736332237795257</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>625963</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>568923</v>
+        <v>578183</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>676598</v>
+        <v>679957</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1774027857936755</v>
+        <v>0.1774027857936754</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1612372208380831</v>
+        <v>0.1638616651073452</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1917531733694846</v>
+        <v>0.1927052245457189</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>762</v>
@@ -3208,19 +3208,19 @@
         <v>566836</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>529281</v>
+        <v>526184</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>608549</v>
+        <v>608268</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1519936465715449</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.141923540418961</v>
+        <v>0.1410930161908024</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1631787909561012</v>
+        <v>0.1631034854950162</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1330</v>
@@ -3229,19 +3229,19 @@
         <v>1192799</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1134240</v>
+        <v>1124071</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1259138</v>
+        <v>1259664</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1643466201406581</v>
+        <v>0.164346620140658</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1562783480933933</v>
+        <v>0.1548771916681259</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1734870139124502</v>
+        <v>0.1735595368507179</v>
       </c>
     </row>
     <row r="39">
